--- a/soo/data.xlsx
+++ b/soo/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE733E2-D98F-48A3-8CB4-C3E11DAD936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF14813-B9CF-4480-98A1-B0E99281C98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5371317B-2394-48FA-B7F1-DB07E947044D}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{5371317B-2394-48FA-B7F1-DB07E947044D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="368">
   <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세라마이드 아토 로션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모이스춰라이징 로션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -568,9 +564,6 @@
   </si>
   <si>
     <t>정제수, 프로판다이올, 펜틸렌글라이콜, 글리세린, 1,2-헥산다이올, 판테놀, 참마뿌리추출물, 인도멀구슬나무잎추출물, 인도멀구슬나무꽃추출물, 아이비고드열매추출물, 카바카바잎/뿌리/줄기추출물, 병풀추출물, 인삼열매추출물, 가지열매추출물, 알로에베라꽃추출물, 홀리바질잎추출물, 울금뿌리추출물, 참산호말추출물, 갈랑가갈랑갈추출물, 소듐하이알루로네이트(1,000ppm), 하이드로제네이티드레시틴, 메틸프로판다이올, 소듐아크릴릭애씨드/엠에이코폴리머, 부틸렌글라이콜, 잔탄검, 소듐시트레이트, 글라이코실트레할로오스, 하이드로제네이티드스타치하이드롤리세이트, 아데노신, 시트릭애씨드, 라피노오스, 레시틴, 폴리쿼터늄-51, 베타-글루칸, 사카라이드아이소머레이트, 사이아노코발아민, 바이오사카라이드검-1, 카프릴릭/카프릭트라이글리세라이드, 소듐스테아로일글루타메이트, 수크로오스라우레이트, 글라이신, 세린, 알지닌, 히스티딘, 리솔레시틴, 하이드롤라이즈드소듐하이알루로네이트(0.1ppm), 토코페롤, 벤질글라이콜, 하이드롤라이즈드글라이코사미노글리칸(0.0056ppm), 소듐아세틸레이티드하이알루로네이트(0.000002ppm), 소듐하이알루로네이트크로스폴리머(0.001ppm), 하이드록시프로필트라이모늄하이알루로네이트(0.0001ppm), 하이드롤라이즈드하이알루로닉애씨드(0.0005ppm), 하이알루로닉애씨드(0.00001ppm), 에틸헥실글리세린, 카프릴릴글라이콜</t>
-  </si>
-  <si>
-    <t>정제수, 프로판다이올, 펜틸렌글라이콜, 글리세린, 1,2-헥산다이올, 판테놀, 참마뿌리추출물, 인도멀구슬나무잎추출물, 인도멀구슬나무꽃추출물, 아이비고드열매추출물, 카바카바잎/뿌리/줄기추출물, 병풀추출물, 인삼열매추출물, 가지열매추출물, 알로에베라꽃추출물, 홀리바질잎추출물, 울금뿌리추출물, 참산호말추출물, 갈랑가갈랑갈추출물, 소듐하이알루로네이트(1,000ppm), 하이드로제네이티드레시틴, 메틸프로판다이올, 소듐아크릴릭애씨드/엠에이코폴리머, 부틸렌글라이콜, 잔탄검, 소듐시트레이트, 글라이코실트레할로오스, 하이드로제네이티드스타치하이드롤리세이트, 아데노신, 시트릭애씨드, 라피노오스, 레시틴, 폴리쿼터늄-51, 베타-글루칸, 사카라이드아이소머레이트, 사이아노코발아민, 바이오사카라이드검-1, 카프릴릭/카프릭트라이글리세라이드, 소듐스테아로일글루타메이트, 수크로오스라우레이트, 글라이신, 세린, 알지닌, 히스티딘, 리솔레시틴, 하이드롤라이즈드소듐하이알루로네이트(0.1ppm), 토코페롤, 벤질글라이콜, 하이드롤라이즈드글라이코사미노글리칸(0.0056ppm), 소듐아세틸레이티드하이알루로네이트(0.000002ppm), 소듐하이알루로네이트크로스폴리머(0.001ppm), 하이드록시프로필트라이모늄하이알루로네이트(0.0001ppm), 하이드롤라이즈드하이알루로닉애씨드(0.0005ppm), 하이알루로닉애씨드(0.00001ppm), 에틸헥실글리세린, 카프릴릴글라이콜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1340,13 +1333,31 @@
   <si>
     <t>정제수,글리세린,2,3-부탄다이올,판테놀,다이프로필렌글라이콜, 1,2-헥산다이올,하이드록시아세토페논, 에리스리톨, 베타인, 트레할로오스, 알란토인, 에틸헥실글리세린, 소듐하이알루로네이트,아크릴레이트/C10-30알킬아크릴레이트크로스폴리머, 알지닌,다이소듐이디티에이, 쑥위추출물, 부틸렌글라이콜, 포타슘하이알루로네이트, 하이드롤라이즈드소듐하이알루로네이트,로즈마리잎추출물, 자작나무수액, 트루로즈오브예리코추출물,하이드롤라이즈드하이알루로닉애씨드, 하이알루로닉애씨드</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정제수, 글리세린, 다이프로필렌글라이콜, 나이아신아마이드, 자일리톨, 1,2-헥산다이올, 부틸렌글라이콜, 하이드록시아세토페논, 아크릴레이트/C10-30알킬아크릴레이트크로스폴리머, 녹두추출물, 트로메타민, 에틸헥실글리세린, 하이드롤라이즈드치자추출물, 하이드롤라이즈드맥아추출물, 하이드롤라이즈드삼색제비꽃추출물, 멘톡시프로판다이올, 아데노신, 트라이소듐에틸렌다이아민다이석시네이트, 펜틸렌글라이콜, 글리세릴글루코사이드, 석류나무꽃추출물, 덱스트린, 하이알루로닉애씨드, 치자추출물, 녹두씨추출물, 얼룩파인애플추출물, 사과추출물, 복숭아추출물, 로우스위트블루베리추출물, 글라이코젠, 아세틸헥사펩타이드-8</t>
+  </si>
+  <si>
+    <t>녹두 모공 타이트업 세럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소나무 진정 시카 로션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정제수, 프로판다이올, 1,2-헥산다이올, 글리세린, 세틸에틸헥사노에이트, 하이알루로닉애씨드, 하이드롤라이즈드하이알루로닉애씨드, 소듐하이알루로네이트, 소나무잎추출물 (5,012ppm), 인도멀구슬나무잎추출물, 부틸렌글라이콜, 에틸헥실글리세린, 병풀추출물 (61.12ppm), 인도멀구슬나무꽃추출물, 카카오씨추출물, 세테아릴올리베이트, 글리세레스-26, 글라이코프로테인 (1.0024ppm), 카프릴로일살리실릭애씨드, C12-20알킬글루코사이드, 암모늄폴리아크릴로일다이메틸타우레이트, 하이드로제네이티드폴리데센, 덱스트린, 아시아티코사이드 (0.0501ppm), 아시아틱애씨드 (0.0501ppm), 마데카소사이드 (0.0501ppm), 마데카식애씨드 (0.0501ppm), 비닐다이메티콘, 솔비탄올리베이트, 카보머, C14-22알코올, 다이소듐이디티에이, 트로메타민</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1387,6 +1398,21 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1410,7 +1436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1425,6 +1451,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1762,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B0A36F-91D0-447B-A59C-797C8CCB2D12}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1812,13 +1844,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F2" s="3">
         <v>25000</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -1835,13 +1867,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" s="3">
         <v>15000</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1858,13 +1890,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F4" s="3">
         <v>17000</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1881,13 +1913,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" s="3">
         <v>21000</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1904,13 +1936,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F6" s="3">
         <v>21000</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1927,13 +1959,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="3">
         <v>22000</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1950,13 +1982,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="3">
         <v>23000</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1973,13 +2005,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" s="3">
         <v>34000</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1996,13 +2028,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="3">
         <v>17000</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -2019,13 +2051,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="3">
         <v>45000</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -2042,13 +2074,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" s="3">
         <v>28000</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2065,13 +2097,13 @@
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F13" s="3">
         <v>29000</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -2088,13 +2120,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" s="3">
         <v>25000</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -2111,13 +2143,13 @@
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15" s="3">
         <v>40000</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -2134,13 +2166,13 @@
         <v>8</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" s="3">
         <v>24000</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -2157,13 +2189,13 @@
         <v>43</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" s="3">
         <v>26200</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -2180,13 +2212,13 @@
         <v>43</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F18" s="3">
         <v>50000</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -2203,13 +2235,13 @@
         <v>43</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F19" s="3">
         <v>30000</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -2226,13 +2258,13 @@
         <v>43</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" s="3">
         <v>33000</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -2249,13 +2281,13 @@
         <v>43</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F21" s="3">
         <v>20000</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -2272,13 +2304,13 @@
         <v>43</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F22" s="3">
         <v>52000</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -2295,13 +2327,13 @@
         <v>43</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F23" s="3">
         <v>32000</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -2318,13 +2350,13 @@
         <v>43</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" s="3">
         <v>32000</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -2341,13 +2373,13 @@
         <v>43</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F25" s="3">
         <v>26000</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -2364,13 +2396,13 @@
         <v>43</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F26" s="3">
         <v>35000</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -2387,13 +2419,13 @@
         <v>43</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F27" s="3">
         <v>25000</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -2404,19 +2436,19 @@
         <v>61</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F28" s="3">
-        <v>26200</v>
+        <v>21500</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -2427,7 +2459,7 @@
         <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>43</v>
@@ -2436,10 +2468,10 @@
         <v>147</v>
       </c>
       <c r="F29" s="3">
-        <v>21500</v>
+        <v>38000</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -2450,7 +2482,7 @@
         <v>63</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>43</v>
@@ -2459,10 +2491,10 @@
         <v>148</v>
       </c>
       <c r="F30" s="3">
-        <v>38000</v>
+        <v>26500</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -2470,22 +2502,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>64</v>
+        <v>365</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>149</v>
+      <c r="E31" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="F31" s="3">
-        <v>26500</v>
+        <v>25000</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>112</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -2493,22 +2525,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F32" s="3">
         <v>22000</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -2516,22 +2548,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F33" s="3">
         <v>30000</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -2539,22 +2571,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F34" s="3">
         <v>39000</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -2562,22 +2594,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F35" s="3">
         <v>42000</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -2585,22 +2617,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F36" s="3">
         <v>40000</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -2608,22 +2640,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F37" s="3">
         <v>35000</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -2631,22 +2663,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>152</v>
+        <v>65</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="F38" s="3">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -2657,19 +2689,19 @@
         <v>80</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>190</v>
+        <v>65</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="F39" s="3">
-        <v>50000</v>
+        <v>23000</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -2680,19 +2712,19 @@
         <v>81</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>163</v>
+        <v>65</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="F40" s="3">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -2703,19 +2735,19 @@
         <v>82</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F41" s="3">
-        <v>31000</v>
+        <v>36000</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -2726,19 +2758,19 @@
         <v>83</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>165</v>
       </c>
       <c r="F42" s="3">
-        <v>36000</v>
+        <v>42000</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -2749,19 +2781,19 @@
         <v>84</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>167</v>
+        <v>65</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="F43" s="3">
-        <v>42000</v>
+        <v>38000</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -2772,19 +2804,19 @@
         <v>85</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>168</v>
       </c>
       <c r="F44" s="3">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
@@ -2798,39 +2830,39 @@
         <v>74</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F45" s="3">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>87</v>
+      <c r="B46" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>171</v>
+        <v>65</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>363</v>
       </c>
       <c r="F46" s="3">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -2838,22 +2870,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F47" s="3">
         <v>33000</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -2861,22 +2893,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F48" s="3">
         <v>75000</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
@@ -2884,22 +2916,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F49" s="3">
         <v>24000</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -2907,22 +2939,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F50" s="3">
         <v>26000</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
@@ -2930,22 +2962,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F51" s="3">
         <v>29000</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
@@ -2953,22 +2985,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F52" s="3">
         <v>32000</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
@@ -2976,22 +3008,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F53" s="3">
         <v>21000</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
@@ -2999,22 +3031,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F54" s="3">
         <v>23800</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
@@ -3022,22 +3054,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F55" s="3">
         <v>28000</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
@@ -3045,22 +3077,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F56" s="3">
         <v>28000</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
@@ -3068,22 +3100,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F57" s="3">
         <v>32000</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
@@ -3091,22 +3123,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F58" s="3">
         <v>36000</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
@@ -3114,22 +3146,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F59" s="3">
         <v>24000</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
@@ -3137,22 +3169,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F60" s="3">
         <v>42000</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
@@ -3160,22 +3192,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="E61" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F61" s="3">
         <v>26000</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
@@ -3183,22 +3215,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="F62" s="2">
         <v>39000</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
@@ -3206,22 +3238,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="F63" s="2">
         <v>25000</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
@@ -3229,22 +3261,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F64" s="2">
         <v>22000</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
@@ -3252,22 +3284,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F65" s="2">
         <v>20000</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
@@ -3275,22 +3307,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F66" s="2">
         <v>26000</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
@@ -3298,22 +3330,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="F67" s="2">
         <v>58000</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
@@ -3321,22 +3353,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="F68" s="2">
         <v>42000</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
@@ -3344,22 +3376,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="F69" s="2">
         <v>29000</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
@@ -3367,22 +3399,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F70" s="2">
         <v>36500</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
@@ -3390,22 +3422,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="F71" s="2">
         <v>24000</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
@@ -3413,22 +3445,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F72" s="2">
         <v>28000</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
@@ -3436,22 +3468,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="F73" s="2">
         <v>44000</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
@@ -3459,22 +3491,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F74" s="2">
         <v>29000</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
@@ -3482,22 +3514,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F75" s="2">
         <v>20000</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
@@ -3505,22 +3537,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="F76" s="2">
         <v>42000</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
@@ -3528,22 +3560,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F77" s="2">
         <v>15000</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
@@ -3551,22 +3583,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="F78" s="2">
         <v>16000</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
@@ -3574,22 +3606,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F79" s="2">
         <v>15000</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
@@ -3597,22 +3629,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="F80" s="2">
         <v>16000</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
@@ -3620,22 +3652,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F81" s="2">
         <v>31000</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
@@ -3643,22 +3675,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="F82" s="2">
         <v>22000</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
@@ -3666,22 +3698,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F83" s="2">
         <v>18000</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
@@ -3689,22 +3721,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F84" s="2">
         <v>23000</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
@@ -3712,22 +3744,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="F85" s="2">
         <v>14000</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
@@ -3735,22 +3767,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="F86" s="2">
         <v>18000</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
@@ -3758,22 +3790,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F87" s="2">
         <v>13000</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
@@ -3781,22 +3813,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F88" s="2">
         <v>15000</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.4">
@@ -3804,22 +3836,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="F89" s="2">
         <v>24000</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">
@@ -3827,22 +3859,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F90" s="2">
         <v>20000</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.4">
@@ -3850,22 +3882,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="F91" s="2">
         <v>31000</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
@@ -3873,22 +3905,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="F92" s="2">
         <v>40000</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
@@ -3896,22 +3928,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F93" s="2">
         <v>30000</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.4">
@@ -3919,22 +3951,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F94" s="2">
         <v>40000</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.4">
@@ -3942,22 +3974,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="F95" s="2">
         <v>32000</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.4">
@@ -3965,22 +3997,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F96" s="2">
         <v>105000</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.4">
@@ -3988,22 +4020,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F97" s="2">
         <v>120000</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.4">
@@ -4011,22 +4043,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="F98" s="2">
         <v>20000</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.4">
@@ -4034,22 +4066,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F99" s="2">
         <v>75000</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.4">
@@ -4057,22 +4089,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F100" s="2">
         <v>20000</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.4">
@@ -4080,22 +4112,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F101" s="2">
         <v>60000</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.4">
@@ -4103,22 +4135,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F102" s="2">
         <v>45000</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.4">
@@ -4126,22 +4158,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F103" s="2">
         <v>60000</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.4">
@@ -4149,22 +4181,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="F104" s="2">
         <v>30000</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.4">
@@ -4172,22 +4204,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="F105" s="2">
         <v>16000</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.4">
@@ -4195,22 +4227,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F106" s="2">
         <v>32000</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.4">
@@ -4218,22 +4250,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F107" s="2">
         <v>40000</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.4">
@@ -4241,22 +4273,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F108" s="2">
         <v>22000</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.4">
@@ -4264,22 +4296,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F109" s="2">
         <v>40000</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.4">
@@ -4287,22 +4319,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F110" s="2">
         <v>34000</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.4">
@@ -4310,22 +4342,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F111" s="2">
         <v>20000</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.4">
@@ -4333,22 +4365,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F112" s="2">
         <v>70000</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.4">
@@ -4356,22 +4388,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F113" s="2">
         <v>50000</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.4">
@@ -4379,22 +4411,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F114" s="2">
         <v>24000</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.4">
@@ -4402,22 +4434,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="F115" s="2">
         <v>20000</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.4">
@@ -4425,22 +4457,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F116" s="2">
         <v>26000</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.4">
@@ -4448,22 +4480,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F117" s="2">
         <v>22000</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.4">
@@ -4471,22 +4503,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F118" s="2">
         <v>22000</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.4">
@@ -4494,22 +4526,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="F119" s="2">
         <v>27000</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.4">
@@ -4517,22 +4549,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F120" s="2">
         <v>42000</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.4">
@@ -4540,22 +4572,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="F121" s="2">
         <v>19500</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/soo/data.xlsx
+++ b/soo/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sec\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sec\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF14813-B9CF-4480-98A1-B0E99281C98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F411F65-1779-4E82-9F26-07AB02CD635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{5371317B-2394-48FA-B7F1-DB07E947044D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5371317B-2394-48FA-B7F1-DB07E947044D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="489">
   <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -908,10 +908,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리릴프 하이드레이션 라이트 폼 클렌저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>YBK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1335,29 +1331,404 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>녹두 모공 타이트업 세럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소나무 진정 시카 로션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정제수, 프로판다이올, 1,2-헥산다이올, 글리세린, 세틸에틸헥사노에이트, 하이알루로닉애씨드, 하이드롤라이즈드하이알루로닉애씨드, 소듐하이알루로네이트, 소나무잎추출물 (5,012ppm), 인도멀구슬나무잎추출물, 부틸렌글라이콜, 에틸헥실글리세린, 병풀추출물 (61.12ppm), 인도멀구슬나무꽃추출물, 카카오씨추출물, 세테아릴올리베이트, 글리세레스-26, 글라이코프로테인 (1.0024ppm), 카프릴로일살리실릭애씨드, C12-20알킬글루코사이드, 암모늄폴리아크릴로일다이메틸타우레이트, 하이드로제네이티드폴리데센, 덱스트린, 아시아티코사이드 (0.0501ppm), 아시아틱애씨드 (0.0501ppm), 마데카소사이드 (0.0501ppm), 마데카식애씨드 (0.0501ppm), 비닐다이메티콘, 솔비탄올리베이트, 카보머, C14-22알코올, 다이소듐이디티에이, 트로메타민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>정제수, 글리세린, 다이프로필렌글라이콜, 나이아신아마이드, 자일리톨, 1,2-헥산다이올, 부틸렌글라이콜, 하이드록시아세토페논, 아크릴레이트/C10-30알킬아크릴레이트크로스폴리머, 녹두추출물, 트로메타민, 에틸헥실글리세린, 하이드롤라이즈드치자추출물, 하이드롤라이즈드맥아추출물, 하이드롤라이즈드삼색제비꽃추출물, 멘톡시프로판다이올, 아데노신, 트라이소듐에틸렌다이아민다이석시네이트, 펜틸렌글라이콜, 글리세릴글루코사이드, 석류나무꽃추출물, 덱스트린, 하이알루로닉애씨드, 치자추출물, 녹두씨추출물, 얼룩파인애플추출물, 사과추출물, 복숭아추출물, 로우스위트블루베리추출물, 글라이코젠, 아세틸헥사펩타이드-8</t>
-  </si>
-  <si>
-    <t>녹두 모공 타이트업 세럼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소나무 진정 시카 로션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250ml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정제수, 프로판다이올, 1,2-헥산다이올, 글리세린, 세틸에틸헥사노에이트, 하이알루로닉애씨드, 하이드롤라이즈드하이알루로닉애씨드, 소듐하이알루로네이트, 소나무잎추출물 (5,012ppm), 인도멀구슬나무잎추출물, 부틸렌글라이콜, 에틸헥실글리세린, 병풀추출물 (61.12ppm), 인도멀구슬나무꽃추출물, 카카오씨추출물, 세테아릴올리베이트, 글리세레스-26, 글라이코프로테인 (1.0024ppm), 카프릴로일살리실릭애씨드, C12-20알킬글루코사이드, 암모늄폴리아크릴로일다이메틸타우레이트, 하이드로제네이티드폴리데센, 덱스트린, 아시아티코사이드 (0.0501ppm), 아시아틱애씨드 (0.0501ppm), 마데카소사이드 (0.0501ppm), 마데카식애씨드 (0.0501ppm), 비닐다이메티콘, 솔비탄올리베이트, 카보머, C14-22알코올, 다이소듐이디티에이, 트로메타민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%97%90%EC%8A%A4%EB%84%A4%EC%9D%B4%EC%B2%98-%EC%95%84%EC%BF%A0%EC%95%84-%EC%98%A4%EC%95%84%EC%8B%9C%EC%8A%A4-%ED%86%A0%EB%84%88-300ml-%EB%8D%94%EB%B8%94-%EA%B8%B0%ED%9A%8D-%ED%86%A0%EB%84%88PLUS%ED%86%A0%EB%84%88PLUS%ED%99%94%EC%9E%A5%EC%86%9C/26143?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%9D%BC%EC%9A%B4%EB%93%9C%EB%9E%A9-1025-%EB%8F%85%EB%8F%84-%ED%86%A0%EB%84%88-500ml/34633?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%86%A0%EB%8B%88%EB%AA%A8%EB%A6%AC-%EC%9B%90%EB%8D%94-%EC%84%B8%EB%9D%BC%EB%A7%88%EC%9D%B4%EB%93%9C-%EB%AA%A8%EC%B0%8C-%ED%86%A0%EB%84%88-500ml/27380?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%86%A0%EB%A6%AC%EB%93%A0-%EB%8B%A4%EC%9D%B4%EB%B8%8C%EC%9D%B8-%EC%A0%80%EB%B6%84%EC%9E%90-%ED%9E%88%EC%95%8C%EB%A3%A8%EB%A1%A0%EC%82%B0-%ED%86%A0%EB%84%88-300ml-%EB%8D%94%EB%B8%94%EA%B8%B0%ED%9A%8D-PLUS%EC%88%98%EB%94%A9%ED%81%AC%EB%A6%BC-20-ml/69574?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%9D%B4%EC%A6%88%EC%95%A4%ED%8A%B8%EB%A6%AC-%EC%B4%88%EC%A0%80%EB%B6%84%EC%9E%90-%ED%9E%88%EC%95%84%EB%A3%A8%EB%A1%A0%EC%82%B0-%ED%86%A0%EB%84%88-%EA%B8%B0%ED%9A%8D-300ml-%EB%B3%B8%ED%92%88PLUS200ml-%EB%A6%AC%ED%95%84PLUS%EB%AF%B8%EC%8A%A4%ED%8A%B8%ED%8E%8C%ED%94%84/62479?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%BD%94%EC%8A%A4%EB%85%B8%EB%A6%AC-%ED%8C%90%ED%85%8C%EB%86%80-%EB%B2%A0%EB%A6%AC%EC%96%B4-%ED%86%A0%EB%84%88-205ml-2%EA%B0%9C%EC%9E%85/60295?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%8D%94%EB%9E%A9%EB%B0%94%EC%9D%B4%EB%B8%94%EB%9E%91%EB%91%90-%EC%98%AC%EB%A6%AC%EA%B3%A0-%ED%9E%88%EC%95%8C%EB%A3%A8%EB%A1%A0%EC%82%B0-%EB%94%A5-%ED%86%A0%EB%84%88-200ml/56188?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%9D%B4%ED%94%8C%EB%AF%B8-%ED%95%98%EC%9D%B4%EB%93%9C%EB%9D%BC-%EC%85%80-%EB%B6%80%EC%8A%A4%ED%8C%85-%ED%86%A0%EB%84%88-400mlPLUS30ml/71966?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%B9%84%EA%B7%B8%EB%A6%B0-%EB%AC%B4%EC%95%8C%EC%BD%9C-%EB%AE%A4%EC%8B%A0-%EC%97%90%EC%84%BC%EC%8A%A4-%ED%86%A0%EB%84%88-150ml/65426?goods_tab=review_ingredients</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%95%84%EB%88%84%EC%95%84-%EC%96%B4%EC%84%B1%EC%B4%88-77-%EC%88%98%EB%94%A9-%ED%86%A0%EB%84%88-500ml/35620?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%94%84%EB%A6%AC%EB%A9%94%EC%9D%B4-%EB%B9%84%EA%B1%B4-%EC%96%B4%EC%84%B1%EC%B4%88-%EC%A7%84%EC%A0%95%ED%95%B4-%EC%88%98%EB%B6%84-%ED%86%A0%EB%84%88-%EB%8D%94%EB%B8%94-%EA%B8%B0%ED%9A%8D%EC%84%B8%ED%8A%B8-350ml-PLUS-350ml/43201?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%8B%A5%ED%84%B0%ED%8A%B8%EC%9B%AC%ED%8B%B0%ED%94%84%EB%A1%9C%EC%A0%9D%ED%8A%B8-%EB%82%98%EC%9D%B8-%ED%86%A0%EB%84%88-300ml-1PLUS1/70460?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%A7%88%EB%85%80%EA%B3%B5%EC%9E%A5-%EB%B9%84%ED%94%BC%EB%8B%A4-%EB%B0%94%EC%9D%B4%EC%98%B4-%EC%95%B0%ED%94%8C-%ED%86%A0%EB%84%88-400ml/35549?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%9B%B0%EB%9D%BC%EC%A5%AC-%EB%A6%AC%EC%96%BC-%ED%9E%88%EC%95%8C%EB%A3%A8%EB%A1%9C%EB%8B%89-100-%ED%86%A0%EB%84%88-200ml-2%EA%B0%9C%EC%9E%85/57154?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%B9%84%ED%94%8C%EB%A0%88%EC%9D%B8-%EC%8B%9C%EC%B9%B4%ED%85%8C%EB%A1%A4-%ED%86%A0%EB%84%88-200mlx2%EA%B0%9C/53048?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%9D%BC%EB%A6%AC%EC%9C%A4-%EC%84%B8%EB%9D%BC%EB%A7%88%EC%9D%B4%EB%93%9C-%EC%95%84%ED%86%A0-%EB%A1%9C%EC%85%98-350ml-%EB%8D%94%EB%B8%94%EA%B8%B0%ED%9A%8D-PLUS50mlPLUS%ED%81%AC%EB%A6%BC75ml-2%EA%B0%9C/58436?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%95%84%ED%86%A0%ED%8C%9C-MLE-%EB%A1%9C%EC%85%98-300ml-2%EA%B0%9C%EC%9E%85/48482?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%8B%B8%EC%9D%B4%EB%8B%89-%EB%8D%94-%EC%8B%AC%ED%94%8C-%EB%8D%B0%EC%9D%BC%EB%A6%AC-%EB%A1%9C%EC%85%98-%EB%8C%80%EC%9A%A9%EB%9F%89-%EA%B8%B0%ED%9A%8D%EC%84%B8%ED%8A%B8-260mlPLUS300ml/68145?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%97%90%EC%8A%A4%ED%8A%B8%EB%9D%BC-1PLUS1-%EC%95%84%ED%86%A0%EB%B2%A0%EB%A6%AC%EC%96%B4365-%EB%A1%9C%EC%85%98-150ml%EA%B8%B0%ED%9A%8D-%EB%B3%B8%ED%92%88PLUS%EC%97%90%EC%84%BC%EC%8A%A425mlPLUS%EC%83%A4%EC%89%906%EB%A7%A4-PLUS%ED%81%AC%EB%A6%BC2%EA%B0%9C-%EC%A6%9D%EC%A0%95/72561?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%9D%BC%EC%9A%B4%EB%93%9C%EB%9E%A9-1025-%EB%8F%85%EB%8F%84-%EB%A1%9C%EC%85%98-400ml/34795?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%95%84%ED%86%A0%ED%8C%9C-%EC%88%98%EB%94%A9-%EC%A0%A4-%EB%A1%9C%EC%85%98-160ml-2%EA%B0%9C%EC%9E%85/43070?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%93%A8%EC%96%B4%EC%86%9C-%EC%84%9C%EC%96%91%EC%86%A1%EC%95%85-%EC%88%9C%EC%88%98-%EB%A1%9C%EC%85%98-450ml/71802?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%8A%A4%ED%82%A8%EC%9B%A8%EC%9D%B4%EB%B9%84-%ED%83%84%ED%83%84-%EB%AA%A8%EA%B3%B5-%ED%8E%A9%ED%83%80%EB%85%B8%EC%82%B0-%EB%8B%A8%EB%B0%B1%EC%A7%88-%EB%A1%9C%EC%85%98-120ml/72564?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%BD%94%EC%8A%A4%EB%85%B8%EB%A6%AC-%ED%8C%90%ED%85%8C%EB%86%80-%EB%B2%A0%EB%A6%AC%EC%96%B4-%EC%97%90%EB%A9%80%EC%A0%84-150ml-2%EA%B0%9C%EC%9E%85/60366?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%98%A8%EA%B7%B8%EB%A6%AC%EB%94%94%EC%96%B8%EC%B8%A0-%EC%8A%A4%ED%82%A8-%EB%B2%A0%EB%A6%AC%EC%96%B4-%EC%B9%B4%EB%B0%8D-%EB%A1%9C%EC%85%98-220mL/62643?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%8A%B8%EB%A6%AC%EB%A7%88%EC%9D%B4-%EC%A0%9C%EC%A3%BC-%EB%A7%90%EC%B0%A8-%EB%A1%9C%EC%9A%B0-%ED%94%BC%EC%97%90%EC%9D%B4%EC%B9%98-%EC%88%98%EB%94%A9-%EC%97%90%EB%A9%80%EC%A0%84-%ED%81%AC%EB%A6%BC/72499?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/products/%EC%84%B8%ED%83%80%ED%95%84-%EB%AA%A8%EC%9D%B4%EC%8A%A4%EC%B6%B0%EB%9D%BC%EC%9D%B4%EC%A7%95-%EB%A1%9C%EC%85%98/1995671?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/products/%ED%94%BC%EC%A7%80%EC%98%A4%EA%B2%94-DMT-%ED%8E%98%EC%9D%B4%EC%85%9C-%EB%A1%9C%EC%85%98/1747514?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%B0%94%EB%A1%A0%EC%8B%9C%EC%97%90-%EC%97%91%ED%86%A0%EC%9D%B8-%EB%A1%9C%EC%85%98-200ml/54054?goods_tab=review_ingredients</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%9D%BC%EC%9A%B4%EB%93%9C%EB%9E%A9-%EC%86%8C%EB%82%98%EB%AC%B4-%EC%A7%84%EC%A0%95-%EC%8B%9C%EC%B9%B4-%EB%A1%9C%EC%85%98-250ml/44546?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%86%A0%EB%A6%AC%EB%93%A0-%EB%8B%A4%EC%9D%B4%EB%B8%8C%EC%9D%B8-%EC%A0%80%EB%B6%84%EC%9E%90-%ED%9E%88%EC%95%8C%EB%A3%A8%EB%A1%A0%EC%82%B0-%EC%84%B8%EB%9F%BC-100ml-%EA%B8%B0%ED%9A%8D-PLUS%EC%88%98%EB%94%A9%ED%81%AC%EB%A6%BC-50ml/54413?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%9B%B0%EB%9D%BC%EC%A5%AC-%EB%A6%AC%EC%96%BC-%ED%9E%88%EC%95%8C%EB%A3%A8%EB%A1%9C%EB%8B%89-%EB%B8%94%EB%A3%A8-100-%EC%95%B0%ED%94%8C-120ml%EA%B8%B0%ED%9A%8D-%EB%B3%B8%ED%92%8860mlPLUS%EB%A6%AC%ED%95%8460ml/61888?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%95%84%EB%88%84%EC%95%84-%EC%95%84%EB%88%84%EC%95%84-%ED%94%BC%EB%94%94%EC%95%8C%EC%97%94-%EC%BA%A1%EC%8A%90-100-%EC%84%B8%EB%9F%BC-50ml-%EB%8C%80%EC%9A%A9%EB%9F%89-%EA%B8%B0%ED%9A%8D-PLUS%ED%81%AC%EB%A6%BC-10ml/69360?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%93%B0%EB%A6%AC%EB%85%B8%ED%94%84-%EB%8D%B0%EC%9D%BC%EB%A6%AC-%EC%BB%A8%EC%85%94%EC%8A%A4-%EC%84%B8%EB%9F%BC-55mL-2%EA%B0%9C%EC%9E%85/72702?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%97%90%EC%8A%A4%EB%84%A4%EC%9D%B4%EC%B2%98-%EC%95%84%EC%BF%A0%EC%95%84-%EC%8A%A4%EC%BF%A0%EC%95%8C%EB%9E%80-%EC%84%B8%EB%9F%BC-100ml-PLUS-%EB%A7%88%EC%8A%A4%ED%81%AC%ED%8C%A9-1%EB%A7%A4/45153?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%A9%94%EB%94%94%ED%9E%90-%EB%A7%88%EB%8D%B0%EC%B9%B4%EC%86%8C%EC%82%AC%EC%9D%B4%EB%93%9C-%ED%9D%94%EC%A0%81-%EB%A6%AC%ED%8E%98%EC%96%B4-%EC%84%B8%EB%9F%BC-100ml-%EA%B8%B0%ED%9A%8D-PLUS%ED%8C%A8%EB%93%9C-2%EB%A7%A4PLUS%EB%A7%88%EC%8A%A4%ED%81%AC-1%EB%A7%A4/66348?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%85%80%EB%9D%BC%EB%94%95%EC%8A%A4-%ED%8A%B8%EB%9F%AC%EB%B8%94-%EC%84%B8%EB%B2%94-%EB%A6%AC%EB%B0%B8%EB%9F%B0%EC%8B%B1-131%EC%95%B0%ED%94%8C-%EA%B8%B0%ED%9A%8D%EC%84%B8%ED%8A%B8-%EC%95%B0%ED%94%8C30ml-2%EA%B0%9CPLUS%EC%88%98%EB%B6%84%ED%81%AC%EB%A6%BC%EC%83%A4%EC%89%901ml-10%EA%B0%9C/69389?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hwahae.co.kr/goods/%ED%86%A0%EB%A6%AC%EB%93%A0-%EB%B0%B8%EB%9F%B0%EC%8A%A4%ED%92%80-%EC%8B%9C%EC%B9%B4-%EC%A7%84%EC%A0%95-%EC%84%B8%EB%9F%BC-50ml/47543?goods_tab=review_ingredients </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hwahae.co.kr/goods/%EB%A1%9C%ED%8F%AC%EC%97%90-%EB%B2%A0%EB%9F%AC-%EB%B0%B8%EB%9F%B0%EC%8A%A4-%EC%95%B0%ED%94%8C-50ml/66581?goods_tab=review_ingredients </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hwahae.co.kr/goods/%ED%94%84%EB%A6%AC%EB%A9%94%EC%9D%B4-%ED%8A%B8%EB%A6%AC%ED%94%8C-%EC%9D%B4%ED%8E%99%ED%8A%B8-%EC%8B%9C%EB%84%88%EC%A7%80-%EC%84%B8%EB%9F%BC-%EA%B8%B0%ED%9A%8D-%EC%84%B8%EB%9F%BC-50mlPLUS%ED%81%AC%EB%A6%BC30ml-PLUS%ED%95%91%ED%81%AC-%EB%A7%88%EC%8A%A4%ED%81%AC-2%EB%A7%A4-%EC%A6%9D%EC%A0%95/67870?goods_tab=review_ingredients  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%95%84%EB%A0%8C%EC%8B%9C%EC%95%84-%EB%A0%88%EB%93%9C-%EC%8A%A4%EB%AC%B4%EB%94%94-%EC%84%B8%EB%9F%BC-30-50g/68610?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%B9%84%ED%94%8C%EB%A0%88%EC%9D%B8-%EC%8B%9C%EC%B9%B4-%ED%94%BC%EB%94%94%EC%95%8C%EC%97%94-%EC%8A%A4%ED%82%A8%EB%B6%80%EC%8A%A4%ED%84%B0-%EC%84%B8%EB%9F%BC-30mlPLUS10mlPLUS10ml/71132?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%8A%A4%ED%82%A8%EC%95%A4%EB%9E%A9-%EB%B2%A0%EB%A6%AC%EC%96%B4%EB%8D%A4-%EB%A7%81%EA%B1%B0-%EC%95%B0%ED%94%8C-70ml/63429?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%BD%94%EC%8A%A4%EC%95%8C%EC%97%91%EC%8A%A4-%EB%8D%94-6-%ED%8E%A9%ED%83%80%EC%9D%B4%EB%93%9C-%EC%8A%A4%ED%82%A8-%EB%B6%80%EC%8A%A4%ED%84%B0-%EC%84%B8%EB%9F%BC-150ml-%EB%8D%94%EB%B8%94%EA%B8%B0%ED%9A%8D-PLUS30ml-2%EA%B0%9C/61258?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%B9%84%ED%94%8C%EB%A0%88%EC%9D%B8-%EB%85%B9%EB%91%90-%EB%AA%A8%EA%B3%B5-%ED%83%80%EC%9D%B4%ED%8A%B8%EC%97%85-%EC%84%B8%EB%9F%BC-30mlPLUS15ml-%EA%B8%B0%ED%9A%8D/61049?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%97%90%EC%8A%A4%ED%8A%B8%EB%9D%BC-1PLUS1-NEW%EC%95%84%ED%86%A0%EB%B2%A0%EB%A6%AC%EC%96%B4365-%ED%81%AC%EB%A6%BC-80ml%EA%B8%B0%ED%9A%8D-%EB%B0%94%EB%94%94%ED%81%AC%EB%A6%BC30mlPLUS%EC%83%A4%EC%89%90-PLUS%EC%B6%94%EA%B0%80-%EC%A6%9D%EC%A0%95/70590?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%97%90%EC%8A%A4%EB%84%A4%EC%9D%B4%EC%B2%98-%EC%95%84%EC%BF%A0%EC%95%84-%EC%8A%A4%EC%BF%A0%EC%95%8C%EB%9E%80-%EC%88%98%EB%B6%84%ED%81%AC%EB%A6%BC-80ml-%EB%8D%94%EB%B8%94PLUS%EC%84%B8%EB%9F%BC-10ml-%EC%84%B8%ED%8A%B8/45194?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%86%A0%EB%A6%AC%EB%93%A0-%EB%8B%A4%EC%9D%B4%EB%B8%8C%EC%9D%B8-%EC%A0%80%EB%B6%84%EC%9E%90-%ED%9E%88%EC%95%8C%EB%A3%A8%EB%A1%A0%EC%82%B0-%EC%88%98%EB%94%A9%ED%81%AC%EB%A6%BC-100ml-%EA%B8%B0%ED%9A%8D-PLUS%ED%86%A0%EB%84%88-50mlPLUS%EB%A7%88%EC%8A%A4%ED%81%AC-1%EB%A7%A4/69344?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%B9%84%ED%94%8C%EB%A0%88%EC%9D%B8-%EB%85%B9%EB%91%90-%EB%AA%A8%EA%B3%B5-%ED%83%80%EC%9D%B4%ED%8A%B8%EC%97%85-%EC%88%98%EB%94%A9-%ED%81%AC%EB%A6%BC-60mlPLUS20ml-%EA%B8%B0%ED%9A%8D-PLUS%EB%85%B9%EB%91%90%ED%8F%BC-20ml/68900?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%8B%A5%ED%84%B0%EC%A7%80-%EB%A0%88%EB%93%9C-%EB%B8%94%EB%A0%88%EB%AF%B8%EC%89%AC-%ED%81%B4%EB%A6%AC%EC%96%B4-%EC%88%98%EB%94%A9-%ED%81%AC%EB%A6%BC-50ml-Jar-%EB%93%80%EC%98%A4/59057?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%95%84%EB%88%84%EC%95%84-%EC%95%84%EB%88%84%EC%95%84-%ED%94%BC%EB%94%94%EC%95%8C%EC%97%94-%ED%9E%88%EC%95%8C%EB%A3%A8%EB%A1%A0%EC%82%B0-%EC%BA%A1%EC%8A%90-100-%ED%81%AC%EB%A6%BC-%EA%B8%B0%ED%9A%8D-60mlPLUS10mlPLUS%EB%A7%88%EC%8A%A4%ED%81%AC%ED%8C%A9-2%EB%A7%A4/70767?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%86%A0%EB%A6%AC%EB%93%A0-%EB%8B%A4%EC%9D%B4%EB%B8%8C%EC%9D%B8-%EC%A0%80%EB%B6%84%EC%9E%90-%ED%9E%88%EC%95%8C%EB%A3%A8%EB%A1%A0%EC%82%B0-%ED%81%AC%EB%A6%BC-100ml-%EA%B8%B0%ED%9A%8D-PLUS%EC%84%B8%EB%9F%BC-10mlPLUS%ED%81%B4%EB%A0%8C%EC%A7%95%EC%A0%A4-30ml/46604?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%8B%9C%EB%93%9C%EB%AC%BC-%EB%A7%88%EB%8B%A4%EA%B0%80%EC%8A%A4%EC%B9%B4%EB%A5%B4-%EB%A6%AC%EC%96%BC-%EC%88%98%EB%B6%84-%ED%81%AC%EB%A6%BC-80g/4697?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%94%84%EB%A6%AC%EB%A9%94%EC%9D%B4-%EC%A7%84%EC%A0%95%ED%95%9C-%EC%88%98%EB%B6%84%ED%81%AC%EB%A6%BC-100ml-%EB%8D%94%EB%B8%94-%EA%B8%B0%ED%9A%8D/61437?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EA%B5%AC%EB%8B%AC-%EC%96%B4%EC%84%B1%EC%B4%88-%ED%9E%88%EC%95%8C%EB%A3%A8%EB%A1%A0-%EC%88%98%EB%94%A9-%ED%81%AC%EB%A6%BC-75ml/61607?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%A9%94%EC%9D%B4%ED%81%AC%ED%94%84%EB%A0%98-%EC%9D%B8%ED%85%8C%EC%B9%B4-%EC%88%98%EB%94%A9-%ED%81%AC%EB%A6%BC-80ml-%EA%B8%B0%ED%9A%8D%EC%84%B8%ED%8A%B8-%ED%81%AC%EB%A6%BC80mlPLUS31mlPLUS%ED%8C%A8%EB%93%9C-10EA/60843?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%95%84%EC%9D%B4%EC%86%8C%EC%9D%B4-%EB%AA%A8%EC%9D%B4%EC%8A%A4%EC%B6%B0-%EB%8B%A5%ED%84%B0-%ED%81%AC%EB%A6%BC-70ml/42794?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%86%A0%EB%A6%AC%EB%93%A0-%EB%B0%B8%EB%9F%B0%EC%8A%A4%ED%92%80-%EC%8B%9C%EC%B9%B4-%EC%A7%84%EC%A0%95-%ED%81%AC%EB%A6%BC-80ml/47542?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/products/%EB%8D%94%EB%A0%88%EC%9D%B4%EB%94%94-%ED%8F%AC%EC%96%B4-%EB%8D%94%EB%B8%94-%EB%A6%AC%EC%BB%A4%EB%B2%84%EB%A6%AC-%EB%B0%94%EB%82%98%ED%8B%B0%EB%86%80-%ED%81%AC%EB%A6%BC/2132043?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%A6%AC%EB%B8%8C%EC%97%A0-%EC%8B%9C%EC%B9%B4%EC%A2%80-%EC%B9%B4%EB%B0%8D-%EC%9B%8C%ED%84%B0-%EC%A0%A4%ED%81%AC%EB%A6%BC-%EA%B8%B0%ED%9A%8D-%EB%B3%B8%ED%92%88-100mlPLUS20ml-%EC%8B%9C%EC%B9%B4%EC%A2%80-%ED%8C%A8%EB%93%9C-4%EB%A7%A4-PLUS%EC%A6%9D%EC%A0%95/65765?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/products/%EB%9D%BC%EB%A1%9C%EC%8A%88%ED%8F%AC%EC%A0%9C-%EC%8B%9C%EC%B9%B4%ED%94%8C%EB%9D%BC%EC%8A%A4%ED%8A%B8-%EB%B0%A4-B5PLUS/2010052?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%97%90%EB%9B%B0%EB%93%9C-%EC%88%9C%EC%A0%95-%ED%8C%90%ED%85%90%EC%86%8C%EC%82%AC%EC%9D%B4%EB%93%9C-10-%EC%8B%9C%EC%B9%B4-%EB%B0%A4-50ml/70000?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%8B%B8%EC%9D%B4%EB%8B%89-%EC%BD%9C%EB%9D%BC%EA%B2%90-%EC%95%B0%ED%94%8C-%EC%8A%A4%ED%8B%B1-10g/28801?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%95%84%ED%86%A0%ED%8C%9C-MLE-%ED%81%AC%EB%A6%BC-%EC%8A%A4%ED%8B%B1-%EB%B0%A4-10g-2%EA%B0%9C/58079?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%9D%B4%EB%8B%88%EC%8A%A4%ED%94%84%EB%A6%AC-%EB%B9%84%EC%9E%90-%EC%8B%9C%EC%B9%B4-%EB%B0%A4-40mL/50252?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%8B%A5%ED%84%B0%EC%98%A4%EB%9D%BC%ED%81%B4-%EB%82%98%EC%9D%B4%EC%95%84%EB%B8%8C%EB%9D%BC%EC%9D%B4%ED%8A%B8-%EC%BD%9C%EB%9D%BC%EA%B2%90-%EB%A7%81%ED%81%B4%EC%BC%80%EC%96%B4-%EB%A9%80%ED%8B%B0%EB%B0%A4-20g/30936?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%8B%AC%EB%B0%94-%EB%8D%94%EB%B8%94-%EC%84%B8%EB%9F%BC-%EC%98%AC%EC%9D%B8%EC%9B%90-%EB%A9%80%ED%8B%B0%EB%B0%A4-10g/45635?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/products/%EB%8D%94%ED%95%98%EB%A5%B4%EB%82%98%EC%9D%B4-%EC%8B%9C%EC%B9%B4%EC%9D%B4%EB%93%9C-%EB%B0%A4/2025176?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/products/%ED%94%BC%EC%A7%80%EC%98%A4%EA%B2%94-%EB%A0%88%EB%93%9C%EC%88%98%EB%94%A9-%EC%96%B4%EB%93%9C%EB%B0%B4%EC%8A%A4%EB%93%9C-%EB%A6%B4%EB%A6%AC%ED%94%84%EB%B0%A4/2018002?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/products/%EC%A0%9C%EB%A1%9C%EC%9D%B4%EB%93%9C-%EC%9D%B8%ED%85%90%EC%8B%9C%EB%B8%8C-SOS-%ED%94%8C%EB%9F%AC%EC%8A%A4-%EB%B0%A4/2097713?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/products/%EC%8A%A4%ED%82%A8%EC%95%A4%EB%9E%A9-%EB%B2%A0%EB%A6%AC%EC%96%B4%EB%8D%A4-%EB%A6%B4%EB%A6%AC%ED%94%84-%EB%B0%A4/1814502?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/products/%EB%9D%BC%EB%A1%9C%EC%A0%9C-%EC%95%88%ED%8B%B0%ED%8D%BC%ED%8B%B0%EA%B7%B8-%EC%95%84%EC%9D%B4-%EC%BB%A8%ED%88%AC%EC%96%B4-%EC%8A%A4%ED%8B%B1/2040220?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/products/%EB%8B%A5%ED%84%B0%EC%A7%80-%EB%8D%94%EB%AA%A8%EC%9D%B4%EC%8A%A4%EC%B2%98-%EB%B0%B0%EB%A6%AC%EC%96%B4-D-%EB%A9%80%ED%8B%B0-%EB%B0%A4/2121166?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%95%84%ED%86%A0%ED%8C%9C-%ED%8C%90%ED%85%8C%EB%86%80-%EC%8A%A4%ED%8B%B1%EB%B0%A4-10g/43309?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/products/%ED%82%A4%EC%97%98-%EC%9A%B8%ED%8A%B8%EB%9D%BC-%ED%9B%BC%EC%9D%B4%EC%85%9C-%EB%B2%A0%EB%A6%AC%EC%96%B4-%EC%8A%A4%ED%8B%B1-%EB%B0%A4/2085392?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%B9%84%ED%94%8C%EB%A0%88%EC%9D%B8-%EB%85%B9%EB%91%90-%EC%95%BD%EC%82%B0%EC%84%B1-%ED%81%B4%EB%A0%8C%EC%A7%95%ED%8F%BC-200ml-%EA%B8%B0%ED%9A%8D-120mlPLUS80mlPLUS%EC%88%98%EB%94%A9%ED%81%AC%EB%A6%BC20ml/67703?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%85%98%EB%A6%AC-%EB%8B%A4%EC%8B%9C%EB%A7%88-%EC%95%B0%ED%94%8C-%ED%81%B4%EB%A0%8C%EC%A7%95%ED%8F%BC-120ml-%EB%8D%94%EB%B8%94%EA%B8%B0%ED%9A%8D-PLUS%EB%8B%A4%EC%8B%9C%EB%A7%88-%EB%A7%88%EC%8A%A4%ED%81%AC%ED%8C%A9-5%EB%A7%A4/70162?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%86%A0%EB%A6%AC%EB%93%A0-%EB%8B%A4%EC%9D%B4%EB%B8%8C%EC%9D%B8-%EC%A0%80%EB%B6%84%EC%9E%90-%ED%9E%88%EC%95%8C%EB%A3%A8%EB%A1%A0%EC%82%B0-%ED%81%B4%EB%A0%8C%EC%A7%95%ED%8F%BC-150ml-%EB%8D%94%EB%B8%94%EA%B8%B0%ED%9A%8D-PLUS%EC%8B%9C%EC%B9%B4-%ED%81%B4%EB%A0%8C%EC%A7%95%ED%8F%BC-50ml/66380?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%88%98%EC%9D%B4%EC%8A%A4%ED%82%A8-%EC%96%B4%EB%A6%B0%EC%83%88%EC%8B%B9-%EB%94%A5-%ED%81%B4%EB%A0%8C%EC%A7%95%ED%8F%BC-%EA%B8%B0%ED%9A%8D%EC%84%B8%ED%8A%B8-150mlPLUS150mlPLUS20ml/61962?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%97%90%EC%8A%A4%EB%84%A4%EC%9D%B4%EC%B2%98-%EC%95%84%EC%BF%A0%EC%95%84-%EB%9D%BC%EC%9D%B4%EC%8A%A4-%EC%95%BD%EC%82%B0%EC%84%B1-%ED%81%B4%EB%A0%8C%EC%A7%95%ED%8F%BC-160mlPLUS80mlPLUS%ED%81%B4%EB%A0%8C%EC%A7%95%EC%98%A4%EC%9D%BC-13ml-%EA%B8%B0%ED%9A%8D%EC%84%B8%ED%8A%B8/48278?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/YBK-%EB%A6%B4%EB%A6%AC%ED%94%84-%ED%95%98%EC%9D%B4%EB%93%9C%EB%A0%88%EC%9D%B4%EC%85%98-%EB%9D%BC%EC%9D%B4%ED%8A%B8-%ED%8F%BC-%ED%81%B4%EB%A0%8C%EC%A0%80-150ml-1PLUS1-%EB%8D%94%EB%B8%94%EA%B8%B0%ED%9A%8D/58874?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hwahae.co.kr/goods/%EB%A7%88%EB%85%80%EA%B3%B5%EC%9E%A5-%ED%93%A8%EC%96%B4-%EB%94%A5-%ED%81%B4%EB%A0%8C%EC%A7%95-%ED%8F%BC-100ml-1PLUS1-PLUS%EC%86%8C%EB%8B%A4%ED%8F%BC20ml/35340?goods_tab=review_ingredients </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hwahae.co.kr/goods/%EC%95%84%EB%A0%8C%EC%8B%9C%EC%95%84-%ED%94%84%EB%A0%88%EC%8B%9C-%EA%B7%B8%EB%A6%B0-%EB%96%A1%EC%86%9D-%ED%81%B4%EB%A0%8C%EC%A0%80-120g/68497?goods_tab=review_ingredients </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hwahae.co.kr/goods/%EB%B9%84%EC%95%8C%EB%A8%B8%EB%93%9C-%EB%A6%AC%EC%BB%A4%EB%B2%84%EB%A6%AC-%EB%A8%B8%EB%93%9C-%ED%8C%A9%ED%88%AC%ED%8F%BC-%ED%81%B4%EB%A0%8C%EC%A0%80-%EB%8D%94%EB%B8%94%EA%B8%B0%ED%9A%8D-110ml-2%EA%B0%9C%EC%9E%85PLUS%EB%A8%B8%EB%93%9C%EB%A7%88%EC%8A%A4%ED%81%AC-30ml/56872?goods_tab=review_ingredients </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hwahae.co.kr/goods/%EC%A3%BC%EB%AF%B8%EC%86%8C-%ED%8F%AC%EC%96%B4-%ED%93%A8%EB%A6%AC%ED%8C%8C%EC%9E%89-%EC%82%B4%EB%A6%AC%EC%8B%A4%EC%82%B0-%ED%81%B4%EB%A0%8C%EC%A0%80-120g-%EB%8D%94%EB%B8%94%EA%B8%B0%ED%9A%8D-PLUS%ED%8F%BC20gPLUS%EC%98%A4%EC%9D%BC-20ml/70013?goods_tab=review_ingredients </t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%9D%BC%EC%9A%B4%EB%93%9C%EB%9E%A9-1025-%EB%8F%85%EB%8F%84-%ED%81%B4%EB%A0%8C%EC%A0%80-150ml-2%EA%B0%9C%EC%9E%85/34893?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%86%A0%EB%A6%AC%EB%93%A0-%EB%B0%B8%EB%9F%B0%EC%8A%A4%ED%92%80-%EC%8B%9C%EC%B9%B4-%ED%8F%AC%EC%96%B4-%ED%81%B4%EB%A0%8C%EC%A7%95-%ED%8F%BC-150ml-2%EA%B0%9C%EB%AC%B6%EC%9D%8C/60458?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%92%80%EB%A6%AC-%EA%B7%B8%EB%A6%B0-%ED%86%A0%EB%A7%88%ED%86%A0-%ED%81%B4%EB%A0%88%EC%9D%B4-%ED%8C%A9-%ED%81%B4%EB%A0%8C%EC%A0%80-120ml/63723?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%A9%94%EC%9D%B4%ED%81%AC%ED%94%84%EB%A0%98-%EC%84%B8%EC%9D%B4%ED%94%84-%EB%AF%B8-%EB%A6%B4%EB%A6%AC%ED%94%84-%EB%AA%A8%EC%9D%B4%EC%8A%A4%EC%B2%98-%ED%81%B4%EB%A0%8C%EC%A7%95-%ED%8F%BC-170ml-2%EA%B0%9C/42891?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%8D%94%EB%A6%AC%EC%A6%88-%EB%A6%AC%EC%BD%94%ED%85%8C%EC%B9%B4-%EB%A6%AC%EC%96%BC-%EC%83%9D%ED%81%AC%EB%A6%BC-%ED%81%B4%EB%A0%8C%EC%A7%95%ED%8F%BC-120ml-2%EA%B0%9C%EB%AC%B6%EC%9D%8C/65676?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%A9%94%EB%94%94%ED%9E%90-%EB%A7%88%EB%8D%B0%EC%B9%B4%EC%86%8C%EC%82%AC%EC%9D%B4%EB%93%9C-%EC%97%90%EC%84%BC%EC%85%9C-%EB%A7%88%EC%8A%A4%ED%81%AC-%ED%9D%94%EC%A0%81-%EB%A6%AC%ED%8E%98%EC%96%B4-10%EB%A7%A4PLUS10%EB%A7%A4/64587?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%86%A0%EB%A6%AC%EB%93%A0-%EB%9D%BC%EC%9D%B8%ED%94%84%EB%A0%8C%EC%A6%88-%EB%8B%A4%EC%9D%B4%EB%B8%8C%EC%9D%B8-%EC%A0%80%EB%B6%84%EC%9E%90-%ED%9E%88%EC%95%8C%EB%A3%A8%EB%A1%A0%EC%82%B0-%EB%A7%88%EC%8A%A4%ED%81%AC-10%EB%A7%A4/18164?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%94%84%EB%A6%AC%EB%A9%94%EC%9D%B4-%EC%98%AC%EB%A6%AC%EB%B8%8C-%EC%8B%9C%EC%B9%B4-%EC%B9%B4%EB%B0%8D-%EC%95%B0%ED%94%8C-%EB%A7%88%EC%8A%A4%ED%81%AC-20%EB%A7%A4-%EA%B8%B0%ED%9A%8D-PLUS%ED%95%91%ED%81%AC-%EB%A7%88%EC%8A%A4%ED%81%AC-2%EB%A7%A4-%EC%A6%9D%EC%A0%95/56822?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%8B%88%ED%94%84%EB%8B%88%ED%94%84-%EB%8B%88%ED%94%84%EB%8B%88%ED%94%84-%ED%94%BC%EC%B9%98-%ED%95%8F-%EC%BD%9C%EB%9D%BC%EA%B2%90-%EA%B2%94-%EB%A7%88%EC%8A%A4%ED%81%AC-5%EB%A7%A4%EC%9E%85/72909?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%97%90%EC%8A%A4%EB%84%A4%EC%9D%B4%EC%B2%98-%EC%88%98%ED%8D%BC-%EC%95%84%EC%BF%A0%EC%95%84%EA%B2%94-%EC%98%A4%EC%95%84%EC%8B%9C%EC%8A%A4-%EC%95%B0%ED%94%8C-%EB%A7%88%EC%8A%A4%ED%81%AC-30%EB%A7%A4/48019?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%85%98%EB%A6%AC-%EB%8B%A4%EC%8B%9C%EB%A7%88-%EC%BD%9C%EB%9D%BC%EA%B2%90-%ED%8D%BC%EB%B0%8D-%EB%A7%88%EC%8A%A4%ED%81%AC-30%EB%A7%A4PLUS%EB%A7%88%EC%8A%A4%ED%81%AC%ED%8C%A9-10%EB%A7%A4-%EA%B8%B0%ED%9A%8D/69476?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%96%B4%EB%82%98%EB%8D%94%ED%8E%98%EC%9D%B4%EC%8A%A4-%ED%8E%A9%ED%83%80%ED%85%8C%EB%86%80-%EC%88%98%EB%B6%84-%EB%B0%B8%EB%9F%B0%EC%8A%A4-%ED%95%98%EC%9D%B4%EB%93%9C%EB%A1%9C%EA%B2%94-%EB%A7%88%EC%8A%A4%ED%81%AC-1box-4%EB%A7%A4%EC%9E%85/71280?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%8B%A5%ED%84%B0%EC%98%A4%EB%9D%BC%ED%81%B4-%ED%99%94%EC%9D%B4%ED%8A%B8-%EB%AF%B8%EB%B0%B1-%EB%A0%88%EC%8B%9C%ED%94%BC-%EB%A7%88%EC%8A%A4%ED%81%AC%ED%8C%A9-25ml-25%EB%A7%A4%EC%9E%85-1box/56989?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/products/%EB%A9%94%EB%94%94%ED%9E%90-%EC%97%90%EC%84%BC%EC%85%9C-%EB%A7%88%EC%8A%A4%ED%81%AC-%ED%8B%B0%ED%8A%B8%EB%A6%AC/1986632?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%86%A0%EB%A6%AC%EB%93%A0-%EB%B0%B8%EB%9F%B0%EC%8A%A4%ED%92%80-%EC%8B%9C%EC%B9%B4-%EB%A7%88%EC%8A%A4%ED%81%AC-20%EB%A7%A4/56377?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%A9%94%EB%94%94%ED%9E%90-%ED%95%98%EC%9D%B4%ED%8D%BC-%EC%BD%9C%EB%9D%BC%EA%B2%90-%EB%A7%88%EC%8A%A4%ED%81%AC-10%EB%A7%A4/66646?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%94%84%EB%A6%AC%EB%A9%94%EC%9D%B4-%EB%B9%84%EA%B1%B4-%ED%95%91%ED%81%AC-%EC%BD%9C%EB%9D%BC%EA%B2%90-%EC%95%B0%ED%94%8C-%EB%A7%88%EC%8A%A4%ED%81%AC-30%EB%A7%A4/65441?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%85%80%ED%93%A8%EC%A0%84%EC%94%A8-%ED%8F%AC%EC%8A%A4%ED%8A%B8-%EC%95%8C%ED%8C%8C-%EC%8B%9C%EC%B9%B4-%EC%BF%A8%EB%A7%81-%EB%A7%88%EC%8A%A4%ED%81%AC-10%EB%A7%A4/65785?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%95%84%EB%A1%9C%EC%85%80-%EC%8B%9C%EC%B9%B4-%EB%A6%AC%ED%8E%98%EC%96%B4-%ED%8C%90%ED%85%8C%EB%86%80-%EB%A7%88%EC%8A%A4%ED%81%AC-25g-x-4%EB%A7%A4/67121?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%95%84%EB%A1%9C%EC%85%80-%EC%95%84%EB%A1%9C%EC%85%80-%EC%8A%88%ED%8D%BC-%EC%BD%9C%EB%9D%BC%EA%B2%90-%EB%A7%88%EC%8A%A4%ED%81%AC-4%EB%A7%A4/72726?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%9D%BC%EC%9A%B4%EB%93%9C%EB%9E%A9-%EC%9E%90%EC%9E%91%EB%82%98%EB%AC%B4-%EC%88%98%EB%B6%84-%EC%84%A0%ED%81%AC%EB%A6%BC-80ml/60938?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%9D%B4%EC%A6%88%EC%95%A4%ED%8A%B8%EB%A6%AC-%ED%9E%88%EC%95%84%EB%A3%A8%EB%A1%A0%EC%82%B0-%ED%94%84%EB%A0%88%EC%89%AC-%EC%84%A0-%EC%84%B8%EB%9F%BC-50ml-%EB%8D%94%EB%B8%94-%EA%B8%B0%ED%9A%8D-PLUS%EC%84%A0-%EC%84%B8%EB%9F%BC-10ml/69152?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%97%90%EC%8A%A4%EB%84%A4%EC%9D%B4%EC%B2%98-%EC%95%84%EC%BF%A0%EC%95%84-365-%EC%9C%A0%EB%B8%8C%EC%9D%B4-%EC%84%A0%ED%81%AC%EB%A6%BC-40ml/52871?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/products/%EB%8B%AC%EB%B0%94-%EC%9B%8C%ED%84%B0%ED%92%80-%EC%84%A0%ED%81%AC%EB%A6%BC-SPF50PLUS-PAPLUS-PLUS-PLUS-PLUS-%EC%97%90%EC%84%BC%EC%8A%A4/1956410?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EA%B5%AC%EB%8B%AC-%EC%96%B4%EC%84%B1%EC%B4%88-%EC%A7%84%EC%A0%95-%EC%88%98%EB%B6%84-%EC%84%A0%ED%81%AC%EB%A6%BC-SPF50PLUS-PAPLUS-PLUS-PLUS-PLUS-2%EA%B0%9C%EC%9E%85-24AD-%EC%A6%9D%EC%A0%95/58396?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/YBK-%EB%A6%B4%EB%A6%AC%ED%94%84-%ED%95%98%EC%9D%B4%EB%93%9C%EB%A0%88%EC%9D%B4%EC%85%98-%EB%9D%BC%EC%9D%B4%ED%8A%B8-%EC%8D%AC%EC%8A%A4%ED%81%AC%EB%A6%B0-50ml-%EB%8D%94%EB%B8%94-%EA%B8%B0%ED%9A%8D-PLUS%EC%8D%AC%EC%8A%A4%ED%81%AC%EB%A6%B0-20ml/72318?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%ED%86%A0%EB%A6%AC%EB%93%A0-%EB%8B%A4%EC%9D%B4%EB%B8%8C%EC%9D%B8-%EB%AC%B4%EA%B8%B0%EC%9E%90%EC%B0%A8-%EB%A7%88%EC%9D%BC%EB%93%9C-%EC%84%A0%ED%81%AC%EB%A6%BC-60ml-2%EA%B0%9C%EB%AC%B6%EC%9D%8C/41897?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%8B%A5%ED%84%B0%EC%A7%80-%EA%B7%B8%EB%A6%B0-%EB%A7%88%EC%9D%BC%EB%93%9C-%EC%97%85-%EC%84%A0-%ED%94%8C%EB%9F%AC%EC%8A%A4-35ml-%EB%93%80%EC%98%A4-%EA%B8%B0%ED%9A%8D%EC%84%B8%ED%8A%B8/59058?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%8A%A4%ED%82%A81004-%EB%A7%88%EB%8B%A4%EA%B0%80%EC%8A%A4%EC%B9%B4%EB%A5%B4-%EC%84%BC%ED%85%94%EB%9D%BC-%ED%9E%88%EC%95%8C%EB%A3%A8-%EC%8B%9C%EC%B9%B4-%EC%9B%8C%ED%84%B0%ED%95%8F-%EC%84%A0-%EC%84%B8%EB%9F%BC-50ml/33116?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%B9%84%ED%94%8C%EB%A0%88%EC%9D%B8-%EC%84%A0%EB%AE%A4%EC%A6%88-%EB%AA%A8%EC%9D%B4%EC%8A%A4%EC%B2%98-%EC%84%A0%ED%81%AC%EB%A6%BC-80ml-%EB%8C%80%EC%9A%A9%EB%9F%89/53483?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%A9%94%EB%94%94%ED%9E%90-%EB%A7%88%EB%8D%B0%EC%B9%B4%EC%86%8C%EC%82%AC%EC%9D%B4%EB%93%9C-%EC%88%98%EB%B6%84-%EC%84%A0%EC%84%B8%EB%9F%BC-%ED%9D%94%EC%A0%81-%EB%A6%AC%ED%8E%98%EC%96%B4-50g/69495?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%8B%9C%EB%93%9C%EB%AC%BC-%EB%8D%95%EB%A7%8C%EC%9D%B4-50-%EB%AC%B4%EA%B8%B0%EC%9E%90%EC%B0%A8-%EC%8D%AC%ED%81%AC%EB%A6%BC-60ml/68467?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%9C%A0%EC%9D%B4%ED%81%AC-%EB%A0%88%EB%AF%B8%EB%94%94-%ED%86%A4%EC%97%85-%EC%84%A0%ED%81%AC%EB%A6%BC-50ml-%EB%B3%B4%EB%9D%BC-PLUS%ED%86%A4%EC%97%85%EC%84%A0-1ml-5%EB%A7%A4/61757?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EC%85%80%ED%93%A8%EC%A0%84%EC%94%A8-%EB%A0%88%EC%9D%B4%EC%A0%80-UV-%EC%8D%AC%EC%8A%A4%ED%81%AC%EB%A6%B0-50ml-2%EA%B0%9C%EC%9E%85/60848?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>https://www.hwahae.co.kr/goods/%EB%94%94%EC%96%B4%ED%81%B4%EB%A0%88%EC%96%B4%EC%8A%A4-%EC%98%AC-%EB%8D%B0%EC%9D%B4-%EC%97%90%EC%96%B4%EB%A6%AC-%EC%84%A0%ED%81%AC%EB%A6%BC-50g-%EB%8D%94%EB%B8%94%EA%B8%B0%ED%9A%8D-PLUS%EC%96%B8%EC%84%BC%ED%8B%B0%EB%93%9C-%ED%86%A0%EB%84%88-30ml/59402?goods_tab=review_ingredients</t>
+  </si>
+  <si>
+    <t>릴리프 하이드레이션 라이트 폼 클렌저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1413,6 +1784,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1431,12 +1811,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1458,9 +1841,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1792,24 +2179,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B0A36F-91D0-447B-A59C-797C8CCB2D12}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.3984375" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1829,8 +2216,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1844,7 +2234,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F2" s="3">
         <v>25000</v>
@@ -1852,8 +2242,11 @@
       <c r="G2" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1875,8 +2268,11 @@
       <c r="G3" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1898,8 +2294,11 @@
       <c r="G4" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1921,8 +2320,11 @@
       <c r="G5" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1936,7 +2338,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F6" s="3">
         <v>21000</v>
@@ -1944,8 +2346,11 @@
       <c r="G6" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1967,8 +2372,11 @@
       <c r="G7" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1990,8 +2398,11 @@
       <c r="G8" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2013,8 +2424,11 @@
       <c r="G9" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2036,8 +2450,11 @@
       <c r="G10" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2059,8 +2476,11 @@
       <c r="G11" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H11" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2082,8 +2502,11 @@
       <c r="G12" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H12" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2097,7 +2520,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F13" s="3">
         <v>29000</v>
@@ -2105,8 +2528,11 @@
       <c r="G13" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2128,8 +2554,11 @@
       <c r="G14" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2151,8 +2580,11 @@
       <c r="G15" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H15" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2174,8 +2606,11 @@
       <c r="G16" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H16" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2197,8 +2632,11 @@
       <c r="G17" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2220,8 +2658,11 @@
       <c r="G18" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2243,8 +2684,11 @@
       <c r="G19" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2266,8 +2710,11 @@
       <c r="G20" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H20" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2289,8 +2736,11 @@
       <c r="G21" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H21" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2312,8 +2762,11 @@
       <c r="G22" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H22" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2335,8 +2788,11 @@
       <c r="G23" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H23" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2358,8 +2814,11 @@
       <c r="G24" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H24" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2381,8 +2840,11 @@
       <c r="G25" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2404,8 +2866,11 @@
       <c r="G26" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H26" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2427,8 +2892,11 @@
       <c r="G27" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H27" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2450,8 +2918,11 @@
       <c r="G28" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H28" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2473,8 +2944,11 @@
       <c r="G29" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H29" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2496,13 +2970,16 @@
       <c r="G30" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H30" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>47</v>
@@ -2511,16 +2988,19 @@
         <v>43</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F31" s="3">
         <v>25000</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+        <v>364</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2542,8 +3022,11 @@
       <c r="G32" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H32" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2565,8 +3048,11 @@
       <c r="G33" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H33" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2588,8 +3074,11 @@
       <c r="G34" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H34" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2611,8 +3100,11 @@
       <c r="G35" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H35" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2634,8 +3126,11 @@
       <c r="G36" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H36" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2657,8 +3152,11 @@
       <c r="G37" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H37" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2680,8 +3178,11 @@
       <c r="G38" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H38" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2703,8 +3204,11 @@
       <c r="G39" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H39" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2726,8 +3230,11 @@
       <c r="G40" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H40" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2749,8 +3256,11 @@
       <c r="G41" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H41" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2772,8 +3282,11 @@
       <c r="G42" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H42" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2795,8 +3308,11 @@
       <c r="G43" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H43" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2818,8 +3334,11 @@
       <c r="G44" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H44" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2841,13 +3360,16 @@
       <c r="G45" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H45" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>36</v>
@@ -2856,7 +3378,7 @@
         <v>65</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F46" s="3">
         <v>24000</v>
@@ -2864,8 +3386,11 @@
       <c r="G46" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2887,8 +3412,11 @@
       <c r="G47" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2910,8 +3438,11 @@
       <c r="G48" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H48" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2933,8 +3464,11 @@
       <c r="G49" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H49" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2956,8 +3490,11 @@
       <c r="G50" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H50" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2979,8 +3516,11 @@
       <c r="G51" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H51" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3002,8 +3542,11 @@
       <c r="G52" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H52" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3025,8 +3568,11 @@
       <c r="G53" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H53" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3048,8 +3594,11 @@
       <c r="G54" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3071,8 +3620,11 @@
       <c r="G55" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H55" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3094,8 +3646,11 @@
       <c r="G56" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H56" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3117,8 +3672,11 @@
       <c r="G57" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H57" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3140,8 +3698,11 @@
       <c r="G58" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H58" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3163,8 +3724,11 @@
       <c r="G59" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H59" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3186,8 +3750,11 @@
       <c r="G60" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H60" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3209,8 +3776,11 @@
       <c r="G61" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H61" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3232,8 +3802,11 @@
       <c r="G62" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H62" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3255,8 +3828,11 @@
       <c r="G63" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H63" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3278,8 +3854,11 @@
       <c r="G64" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H64" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3301,8 +3880,11 @@
       <c r="G65" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H65" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3324,8 +3906,11 @@
       <c r="G66" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H66" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3347,8 +3932,11 @@
       <c r="G67" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H67" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3370,8 +3958,11 @@
       <c r="G68" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H68" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3393,8 +3984,11 @@
       <c r="G69" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H69" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3416,8 +4010,11 @@
       <c r="G70" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H70" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3439,8 +4036,11 @@
       <c r="G71" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H71" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3462,8 +4062,11 @@
       <c r="G72" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H72" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3485,8 +4088,11 @@
       <c r="G73" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H73" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3508,8 +4114,11 @@
       <c r="G74" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H74" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3531,8 +4140,11 @@
       <c r="G75" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H75" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3554,8 +4166,11 @@
       <c r="G76" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H76" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3577,8 +4192,11 @@
       <c r="G77" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H77" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3600,8 +4218,11 @@
       <c r="G78" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H78" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3623,8 +4244,11 @@
       <c r="G79" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H79" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3646,8 +4270,11 @@
       <c r="G80" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H80" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3669,22 +4296,25 @@
       <c r="G81" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H81" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>234</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F82" s="2">
         <v>22000</v>
@@ -3692,13 +4322,16 @@
       <c r="G82" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H82" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>32</v>
@@ -3707,7 +4340,7 @@
         <v>234</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F83" s="2">
         <v>18000</v>
@@ -3715,13 +4348,16 @@
       <c r="G83" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H83" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>72</v>
@@ -3730,67 +4366,76 @@
         <v>234</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F84" s="2">
         <v>23000</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+        <v>253</v>
+      </c>
+      <c r="H84" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>234</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F85" s="2">
         <v>14000</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+        <v>257</v>
+      </c>
+      <c r="H85" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>234</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F86" s="2">
         <v>18000</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+        <v>253</v>
+      </c>
+      <c r="H86" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>47</v>
@@ -3799,7 +4444,7 @@
         <v>234</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F87" s="2">
         <v>13000</v>
@@ -3807,13 +4452,16 @@
       <c r="G87" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H87" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
@@ -3822,7 +4470,7 @@
         <v>234</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F88" s="2">
         <v>15000</v>
@@ -3830,22 +4478,25 @@
       <c r="G88" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H88" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>234</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F89" s="2">
         <v>24000</v>
@@ -3853,13 +4504,16 @@
       <c r="G89" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H89" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>91</v>
@@ -3868,30 +4522,33 @@
         <v>234</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F90" s="2">
         <v>20000</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+        <v>270</v>
+      </c>
+      <c r="H90" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>234</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F91" s="2">
         <v>31000</v>
@@ -3899,367 +4556,415 @@
       <c r="G91" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H91" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="F92" s="2">
         <v>40000</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+        <v>277</v>
+      </c>
+      <c r="H92" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F93" s="2">
         <v>30000</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+        <v>280</v>
+      </c>
+      <c r="H93" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F94" s="2">
         <v>40000</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+        <v>283</v>
+      </c>
+      <c r="H94" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="F95" s="2">
         <v>32000</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+        <v>287</v>
+      </c>
+      <c r="H95" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F96" s="2">
         <v>105000</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+        <v>290</v>
+      </c>
+      <c r="H96" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>237</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F97" s="2">
         <v>120000</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+        <v>293</v>
+      </c>
+      <c r="H97" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="F98" s="2">
         <v>20000</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+        <v>297</v>
+      </c>
+      <c r="H98" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F99" s="2">
         <v>75000</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+        <v>300</v>
+      </c>
+      <c r="H99" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F100" s="2">
         <v>20000</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+      <c r="H100" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F101" s="2">
         <v>60000</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+        <v>306</v>
+      </c>
+      <c r="H101" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F102" s="2">
         <v>45000</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+        <v>309</v>
+      </c>
+      <c r="H102" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F103" s="2">
         <v>60000</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+        <v>312</v>
+      </c>
+      <c r="H103" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="F104" s="2">
         <v>30000</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+        <v>316</v>
+      </c>
+      <c r="H104" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="F105" s="2">
         <v>16000</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+        <v>320</v>
+      </c>
+      <c r="H105" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="F106" s="2">
         <v>32000</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+        <v>323</v>
+      </c>
+      <c r="H106" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="F107" s="2">
         <v>40000</v>
@@ -4267,22 +4972,25 @@
       <c r="G107" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H107" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F108" s="2">
         <v>22000</v>
@@ -4290,22 +4998,25 @@
       <c r="G108" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H108" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F109" s="2">
         <v>40000</v>
@@ -4313,22 +5024,25 @@
       <c r="G109" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H109" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>209</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F110" s="2">
         <v>34000</v>
@@ -4336,22 +5050,25 @@
       <c r="G110" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H110" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F111" s="2">
         <v>20000</v>
@@ -4359,22 +5076,25 @@
       <c r="G111" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H111" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="F112" s="2">
         <v>70000</v>
@@ -4382,22 +5102,25 @@
       <c r="G112" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H112" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F113" s="2">
         <v>50000</v>
@@ -4405,45 +5128,51 @@
       <c r="G113" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H113" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F114" s="2">
         <v>24000</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+        <v>341</v>
+      </c>
+      <c r="H114" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="F115" s="2">
         <v>20000</v>
@@ -4451,22 +5180,25 @@
       <c r="G115" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H115" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F116" s="2">
         <v>26000</v>
@@ -4474,22 +5206,25 @@
       <c r="G116" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H116" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="2">
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F117" s="2">
         <v>22000</v>
@@ -4497,22 +5232,25 @@
       <c r="G117" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H117" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="2">
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F118" s="2">
         <v>22000</v>
@@ -4520,22 +5258,25 @@
       <c r="G118" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H118" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="2">
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="F119" s="2">
         <v>27000</v>
@@ -4543,22 +5284,25 @@
       <c r="G119" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H119" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="F120" s="2">
         <v>42000</v>
@@ -4566,22 +5310,25 @@
       <c r="G120" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H120" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="2">
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="F121" s="2">
         <v>19500</v>
@@ -4589,9 +5336,18 @@
       <c r="G121" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="H121" t="s">
+        <v>487</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H10" r:id="rId1" xr:uid="{96AEEA83-E657-4442-A57D-0D5CA5B9CCD4}"/>
+    <hyperlink ref="H29" r:id="rId2" xr:uid="{92CBE433-C68B-4356-9297-1F8C689B210B}"/>
+    <hyperlink ref="H39" r:id="rId3" xr:uid="{D43ECA30-A239-4AF7-89CE-FC360AEE83E4}"/>
+    <hyperlink ref="H40" r:id="rId4" xr:uid="{1D7B4683-8EBD-4F4D-93B3-2A05B2CE0E97}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>